--- a/Data/Figure1/Rawdata/HFDMiceKeyPhotometry.xlsx
+++ b/Data/Figure1/Rawdata/HFDMiceKeyPhotometry.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Raw photometry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure1\Rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEA14EC-923E-499B-9042-830FD751C0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AC3355-783B-404F-826C-2031C87E85DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Yes-Evoked signal after 15min</t>
   </si>
 </sst>
 </file>
@@ -399,7 +396,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +485,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>49.5</v>
